--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Entorno de Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17CA913-86F4-459D-9464-174E12670CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE7B70-A2DD-4827-BF25-F7B02C9C2215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1A21FCF-C426-46B2-880B-F9C002567CA6}"/>
   </bookViews>
@@ -37,40 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="43">
-  <si>
-    <t>DESARROLLO PERSONAL, CIUDADANÍA Y CÍVICA (A)</t>
-  </si>
-  <si>
-    <t>CIENCIAS SOCIALES (B)</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN PARA EL TRABAJO ©</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN FÍSICA (D)</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN €</t>
-  </si>
-  <si>
-    <t>ARTE Y CULTURA (F)</t>
-  </si>
-  <si>
-    <t>CASTELLANO COMO SEGUNDA LENGUA (G)</t>
-  </si>
-  <si>
-    <t>INGLÉS (H)</t>
-  </si>
-  <si>
-    <t>MATEMÁTICA (I)</t>
-  </si>
-  <si>
-    <t>CIENCIA Y TECNOLOGÍA (J)</t>
-  </si>
-  <si>
-    <t>EDUCACIÓN RELIGIOSA (K)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
   <si>
     <t>ALVARADO CACERES, Jhadee Luciana</t>
   </si>
@@ -166,6 +133,33 @@
   </si>
   <si>
     <t>Alumno</t>
+  </si>
+  <si>
+    <t>DESARROLLO PERSONAL</t>
+  </si>
+  <si>
+    <t>CIENCIAS SOCIALES</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN PARA EL TRABAJO</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN FÍSICA</t>
+  </si>
+  <si>
+    <t>ARTE Y CULTURA</t>
+  </si>
+  <si>
+    <t>COMUNICACION</t>
+  </si>
+  <si>
+    <t>INGLES</t>
+  </si>
+  <si>
+    <t>MATEMATICA</t>
+  </si>
+  <si>
+    <t>CIENCIA Y TECNOLOGIA</t>
   </si>
 </sst>
 </file>
@@ -572,95 +566,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AAFDB-FC99-440D-AF84-D0FE1882E679}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="12" width="18.7109375" customWidth="1"/>
+    <col min="2" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -675,30 +657,24 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>18</v>
@@ -707,45 +683,39 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2">
-        <v>19</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>15</v>
@@ -757,24 +727,18 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>16</v>
@@ -783,80 +747,68 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>18</v>
@@ -865,557 +817,467 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="2">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2">
-        <v>19</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2">
-        <v>14</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="2">
-        <v>12</v>
-      </c>
-      <c r="K15" s="2">
-        <v>13</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="2">
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="2">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2">
         <v>11</v>
       </c>
-      <c r="L17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="2">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="2">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2">
-        <v>15</v>
-      </c>
-      <c r="K20" s="2">
-        <v>15</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="2">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2">
-        <v>16</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2">
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
-      <c r="I22" s="2">
-        <v>12</v>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1426,95 +1288,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B0E5FC-1003-4AE6-95C3-15E8DD995F16}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="12" width="18.7109375" customWidth="1"/>
+    <col min="2" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -1535,24 +1385,18 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>17</v>
@@ -1576,21 +1420,15 @@
         <v>18</v>
       </c>
       <c r="I4" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>13</v>
@@ -1611,24 +1449,18 @@
         <v>11</v>
       </c>
       <c r="H5" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>15</v>
@@ -1649,24 +1481,18 @@
         <v>15</v>
       </c>
       <c r="H6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2">
         <v>16</v>
       </c>
-      <c r="K6" s="2">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>14</v>
@@ -1690,21 +1516,15 @@
         <v>14</v>
       </c>
       <c r="I7" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>18</v>
@@ -1725,24 +1545,18 @@
         <v>16</v>
       </c>
       <c r="H8" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="2">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -1763,101 +1577,83 @@
         <v>10</v>
       </c>
       <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="B10" s="2">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2">
-        <v>19</v>
-      </c>
-      <c r="L10" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16</v>
-      </c>
-      <c r="J11" s="2">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B12" s="2">
         <v>13</v>
       </c>
@@ -1877,24 +1673,18 @@
         <v>14</v>
       </c>
       <c r="H12" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2">
-        <v>14</v>
-      </c>
-      <c r="L12" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -1918,21 +1708,15 @@
         <v>11</v>
       </c>
       <c r="I13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="2">
         <v>12</v>
       </c>
-      <c r="K13" s="2">
-        <v>12</v>
-      </c>
-      <c r="L13" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>16</v>
@@ -1953,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2">
         <v>16</v>
@@ -1961,16 +1745,10 @@
       <c r="J14" s="2">
         <v>16</v>
       </c>
-      <c r="K14" s="2">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
@@ -1991,24 +1769,18 @@
         <v>12</v>
       </c>
       <c r="H15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="2">
         <v>12</v>
       </c>
-      <c r="K15" s="2">
-        <v>12</v>
-      </c>
-      <c r="L15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>17</v>
@@ -2032,21 +1804,15 @@
         <v>16</v>
       </c>
       <c r="I16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="2">
-        <v>17</v>
-      </c>
-      <c r="K16" s="2">
-        <v>16</v>
-      </c>
-      <c r="L16" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>10</v>
@@ -2070,21 +1836,15 @@
         <v>10</v>
       </c>
       <c r="I17" s="2">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2">
-        <v>10</v>
-      </c>
-      <c r="L17" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
@@ -2108,21 +1868,15 @@
         <v>17</v>
       </c>
       <c r="I18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2">
         <v>18</v>
       </c>
-      <c r="K18" s="2">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>19</v>
@@ -2151,16 +1905,10 @@
       <c r="J19" s="2">
         <v>19</v>
       </c>
-      <c r="K19" s="2">
-        <v>19</v>
-      </c>
-      <c r="L19" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>14</v>
@@ -2181,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2">
         <v>14</v>
@@ -2189,16 +1937,10 @@
       <c r="J20" s="2">
         <v>14</v>
       </c>
-      <c r="K20" s="2">
-        <v>14</v>
-      </c>
-      <c r="L20" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>16</v>
@@ -2222,21 +1964,15 @@
         <v>15</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="2">
         <v>16</v>
       </c>
-      <c r="K21" s="2">
-        <v>16</v>
-      </c>
-      <c r="L21" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>13</v>
@@ -2257,19 +1993,13 @@
         <v>13</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2">
-        <v>12</v>
-      </c>
-      <c r="K22" s="2">
-        <v>13</v>
-      </c>
-      <c r="L22" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
